--- a/products/vamc-facility-site/content-and-ia/VAMC-facility-IA-and-URLs-2019-02-05.xlsx
+++ b/products/vamc-facility-site/content-and-ia/VAMC-facility-IA-and-URLs-2019-02-05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnort\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vacolewana2/Documents/GitHub/va.gov-team/products/vamc-facility-site/content-and-ia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6617A2-E6A7-4F25-932F-26C3CCC53651}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B4FAB6-5363-3944-ABE1-BC2F0FB30022}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13224" windowHeight="5628" xr2:uid="{CBB247B5-018A-422A-8B6F-5E55B66819FB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32820" windowHeight="19180" xr2:uid="{CBB247B5-018A-422A-8B6F-5E55B66819FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>L1</t>
   </si>
   <si>
-    <t>Pittsburgh Health Care System</t>
-  </si>
-  <si>
     <t>Spoke</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>No child pages</t>
+  </si>
+  <si>
+    <t>Pittsburgh Health Care</t>
   </si>
 </sst>
 </file>
@@ -881,30 +881,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="10" style="9" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="7"/>
+    <col min="7" max="7" width="54.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -913,857 +913,857 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D5" s="5" t="s">
+      <c r="I5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="G9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D10" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="7" t="s">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="H39" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="D43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="7" t="s">
+      <c r="G43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D31" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D39" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="I44" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="C47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D40" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D41" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="7" t="s">
+      <c r="G47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F45" s="7" t="s">
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C47" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="G48" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1780,7 +1780,7 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
